--- a/data/aerodynamics(Kryuchkov).xlsx
+++ b/data/aerodynamics(Kryuchkov).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Diplom_tex\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="10050" windowHeight="6225" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="10050" windowHeight="6225" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Cy alf, Cy max" sheetId="4" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <sheet name="Масса консолей" sheetId="11" r:id="rId11"/>
     <sheet name="Лист3" sheetId="3" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -196,6 +201,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -260,7 +268,7 @@
             <c:numRef>
               <c:f>'Cy alf, Cy max'!$E$3:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
@@ -287,7 +295,7 @@
             <c:numRef>
               <c:f>'Cy alf, Cy max'!$F$3:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.6</c:v>
@@ -320,11 +328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142377344"/>
-        <c:axId val="142379264"/>
+        <c:axId val="185115064"/>
+        <c:axId val="185115456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142377344"/>
+        <c:axId val="185115064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.7"/>
@@ -342,7 +350,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -371,14 +379,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142379264"/>
+        <c:crossAx val="185115456"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
         <c:minorUnit val="0.05"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142379264"/>
+        <c:axId val="185115456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -396,7 +404,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -425,7 +433,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142377344"/>
+        <c:crossAx val="185115064"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -551,7 +559,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -680,7 +688,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -809,7 +817,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -938,7 +946,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -1065,7 +1073,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -1161,11 +1169,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159484160"/>
-        <c:axId val="159486336"/>
+        <c:axId val="232040792"/>
+        <c:axId val="232041184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159484160"/>
+        <c:axId val="232040792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -1183,7 +1191,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="high"/>
@@ -1212,14 +1220,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159486336"/>
+        <c:crossAx val="232041184"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159486336"/>
+        <c:axId val="232041184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -1237,7 +1245,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -1266,7 +1274,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159484160"/>
+        <c:crossAx val="232040792"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1420,7 +1428,7 @@
             <c:numRef>
               <c:f>'Нагрузки Маневр+НВ (2 сл)'!$B$10:$M$10</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -1538,7 +1546,7 @@
             <c:numRef>
               <c:f>'Нагрузки Маневр+НВ (2 сл)'!$B$10:$M$10</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -1634,11 +1642,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161718656"/>
-        <c:axId val="161720960"/>
+        <c:axId val="232041968"/>
+        <c:axId val="232042360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161718656"/>
+        <c:axId val="232041968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -1711,7 +1719,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -1740,14 +1748,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161720960"/>
+        <c:crossAx val="232042360"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161720960"/>
+        <c:axId val="232042360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1765,7 +1773,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -1794,7 +1802,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161718656"/>
+        <c:crossAx val="232041968"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1954,7 +1962,7 @@
             <c:numRef>
               <c:f>'Нагрузки Маневр+НВ (2 сл)'!$B$10:$M$10</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -2072,7 +2080,7 @@
             <c:numRef>
               <c:f>'Нагрузки Маневр+НВ (2 сл)'!$B$10:$M$10</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -2168,11 +2176,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161741440"/>
-        <c:axId val="162112640"/>
+        <c:axId val="233197712"/>
+        <c:axId val="233198104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161741440"/>
+        <c:axId val="233197712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -2245,7 +2253,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -2274,14 +2282,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162112640"/>
+        <c:crossAx val="233198104"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162112640"/>
+        <c:axId val="233198104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -2299,7 +2307,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -2328,7 +2336,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161741440"/>
+        <c:crossAx val="233197712"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2485,7 +2493,7 @@
             <c:numRef>
               <c:f>'Нагрузки Маневр+НВ (2 сл)'!$B$10:$M$10</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -2603,7 +2611,7 @@
             <c:numRef>
               <c:f>'Нагрузки Маневр+НВ (2 сл)'!$B$10:$M$10</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -2699,11 +2707,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166552704"/>
-        <c:axId val="166555008"/>
+        <c:axId val="233198888"/>
+        <c:axId val="233199280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166552704"/>
+        <c:axId val="233198888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -2776,7 +2784,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -2805,14 +2813,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166555008"/>
+        <c:crossAx val="233199280"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166555008"/>
+        <c:axId val="233199280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2830,7 +2838,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -2859,7 +2867,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166552704"/>
+        <c:crossAx val="233198888"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -3058,7 +3066,7 @@
             <c:numRef>
               <c:f>'Нагрузки Целвого варианта 1 сл'!$B$10:$M$10</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -3154,11 +3162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167286272"/>
-        <c:axId val="167292928"/>
+        <c:axId val="233200456"/>
+        <c:axId val="233200848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167286272"/>
+        <c:axId val="233200456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -3231,7 +3239,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -3260,14 +3268,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167292928"/>
+        <c:crossAx val="233200848"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167292928"/>
+        <c:axId val="233200848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3285,7 +3293,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -3314,7 +3322,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167286272"/>
+        <c:crossAx val="233200456"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -3510,7 +3518,7 @@
             <c:numRef>
               <c:f>'Нагрузки Целвого варианта 1 сл'!$B$10:$M$10</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -3606,11 +3614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167308672"/>
-        <c:axId val="168183680"/>
+        <c:axId val="233406624"/>
+        <c:axId val="233407016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167308672"/>
+        <c:axId val="233406624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -3683,7 +3691,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -3712,14 +3720,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168183680"/>
+        <c:crossAx val="233407016"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168183680"/>
+        <c:axId val="233407016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -3736,7 +3744,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -3765,7 +3773,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167308672"/>
+        <c:crossAx val="233406624"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3925,7 +3933,7 @@
             <c:numRef>
               <c:f>'Нагрузки Целвого варианта 1 сл'!$B$10:$M$10</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -4021,11 +4029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168207488"/>
-        <c:axId val="168209792"/>
+        <c:axId val="233407800"/>
+        <c:axId val="233408192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168207488"/>
+        <c:axId val="233407800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -4098,7 +4106,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -4127,14 +4135,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168209792"/>
+        <c:crossAx val="233408192"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168209792"/>
+        <c:axId val="233408192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -4152,7 +4160,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -4181,7 +4189,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168207488"/>
+        <c:crossAx val="233407800"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -4299,7 +4307,7 @@
             <c:numRef>
               <c:f>'Xf-Xt'!$B$2:$F$2</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
@@ -4378,7 +4386,7 @@
             <c:numRef>
               <c:f>'Xf-Xt'!$C$6:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
@@ -4426,11 +4434,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="169026304"/>
-        <c:axId val="169028224"/>
+        <c:axId val="233408976"/>
+        <c:axId val="233409368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169026304"/>
+        <c:axId val="233408976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.7"/>
@@ -4448,7 +4456,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="high"/>
@@ -4477,14 +4485,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169028224"/>
+        <c:crossAx val="233409368"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
         <c:minorUnit val="0.05"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169028224"/>
+        <c:axId val="233409368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -4502,7 +4510,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -4531,7 +4539,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169026304"/>
+        <c:crossAx val="233408976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -4716,7 +4724,7 @@
             <c:numRef>
               <c:f>'Упругая крутка '!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -4830,7 +4838,7 @@
             <c:numRef>
               <c:f>'Упругая крутка '!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -4926,11 +4934,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="169045376"/>
-        <c:axId val="169064320"/>
+        <c:axId val="232932888"/>
+        <c:axId val="232933280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169045376"/>
+        <c:axId val="232932888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -5003,7 +5011,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -5032,14 +5040,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169064320"/>
+        <c:crossAx val="232933280"/>
         <c:crossesAt val="-5"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169064320"/>
+        <c:axId val="232933280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -5057,7 +5065,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -5086,7 +5094,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169045376"/>
+        <c:crossAx val="232932888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -5202,7 +5210,7 @@
             <c:numRef>
               <c:f>Прогибы!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -5247,7 +5255,7 @@
             <c:numRef>
               <c:f>Прогибы!$B$10:$M$10</c:f>
               <c:numCache>
-                <c:formatCode>_-* # ##0.00_р_._-;\-* # ##0.00_р_._-;_-* "-"??_р_._-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5298,11 +5306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170853504"/>
-        <c:axId val="170855808"/>
+        <c:axId val="232934064"/>
+        <c:axId val="232934456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="170853504"/>
+        <c:axId val="232934064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -5375,7 +5383,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -5404,14 +5412,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170855808"/>
+        <c:crossAx val="232934456"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170855808"/>
+        <c:axId val="232934456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -5429,7 +5437,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -5458,7 +5466,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170853504"/>
+        <c:crossAx val="232934064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -5577,7 +5585,7 @@
             <c:numRef>
               <c:f>'Cy alf, Cy max'!$B$3:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
@@ -5604,7 +5612,7 @@
             <c:numRef>
               <c:f>'Cy alf, Cy max'!$C$3:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6.67</c:v>
@@ -5716,11 +5724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142416128"/>
-        <c:axId val="142426496"/>
+        <c:axId val="231540160"/>
+        <c:axId val="231540552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142416128"/>
+        <c:axId val="231540160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.7"/>
@@ -5738,7 +5746,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -5767,14 +5775,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142426496"/>
+        <c:crossAx val="231540552"/>
         <c:crossesAt val="6"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
         <c:minorUnit val="0.05"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142426496"/>
+        <c:axId val="231540552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -5792,7 +5800,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -5821,7 +5829,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142416128"/>
+        <c:crossAx val="231540160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -5995,7 +6003,7 @@
             <c:numRef>
               <c:f>'Масса консолей'!$C$3:$F$3</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
@@ -6016,7 +6024,7 @@
             <c:numRef>
               <c:f>'Масса консолей'!$C$4:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>861.4253220338984</c:v>
@@ -6043,11 +6051,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170896000"/>
-        <c:axId val="170902272"/>
+        <c:axId val="232935240"/>
+        <c:axId val="232935632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="170896000"/>
+        <c:axId val="232935240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -6065,7 +6073,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -6094,14 +6102,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170902272"/>
+        <c:crossAx val="232935632"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170902272"/>
+        <c:axId val="232935632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900"/>
@@ -6119,7 +6127,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -6148,7 +6156,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170896000"/>
+        <c:crossAx val="232935240"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
@@ -6274,7 +6282,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -6403,7 +6411,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -6532,7 +6540,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -6661,7 +6669,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -6788,7 +6796,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -6884,11 +6892,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142864384"/>
-        <c:axId val="142866304"/>
+        <c:axId val="231541728"/>
+        <c:axId val="231542120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142864384"/>
+        <c:axId val="231541728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -6906,7 +6914,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -6935,14 +6943,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142866304"/>
+        <c:crossAx val="231542120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142866304"/>
+        <c:axId val="231542120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -6960,7 +6968,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -6989,7 +6997,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142864384"/>
+        <c:crossAx val="231541728"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -7157,7 +7165,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -7286,7 +7294,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -7415,7 +7423,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -7544,7 +7552,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -7671,7 +7679,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -7767,11 +7775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144299904"/>
-        <c:axId val="148246528"/>
+        <c:axId val="231542904"/>
+        <c:axId val="231543296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144299904"/>
+        <c:axId val="231542904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -7789,7 +7797,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -7818,14 +7826,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148246528"/>
+        <c:crossAx val="231543296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148246528"/>
+        <c:axId val="231543296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -7843,7 +7851,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -7872,7 +7880,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144299904"/>
+        <c:crossAx val="231542904"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -7998,7 +8006,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -8127,7 +8135,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -8256,7 +8264,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -8385,7 +8393,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -8512,7 +8520,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -8608,11 +8616,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148281984"/>
-        <c:axId val="148296448"/>
+        <c:axId val="232237440"/>
+        <c:axId val="232237832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148281984"/>
+        <c:axId val="232237440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -8630,7 +8638,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -8659,14 +8667,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148296448"/>
+        <c:crossAx val="232237832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148296448"/>
+        <c:axId val="232237832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -8684,7 +8692,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -8713,7 +8721,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148281984"/>
+        <c:crossAx val="232237440"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -8881,7 +8889,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -9010,7 +9018,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -9139,7 +9147,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -9268,7 +9276,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -9395,7 +9403,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=3.42'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -9491,11 +9499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150615552"/>
-        <c:axId val="150617472"/>
+        <c:axId val="232237048"/>
+        <c:axId val="232236656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150615552"/>
+        <c:axId val="232237048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -9513,7 +9521,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -9542,14 +9550,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150617472"/>
+        <c:crossAx val="232236656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150617472"/>
+        <c:axId val="232236656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -9567,7 +9575,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -9596,7 +9604,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150615552"/>
+        <c:crossAx val="232237048"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -9722,7 +9730,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -9851,7 +9859,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -9980,7 +9988,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -10109,7 +10117,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -10236,7 +10244,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -10332,11 +10340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150984192"/>
-        <c:axId val="150986112"/>
+        <c:axId val="232235872"/>
+        <c:axId val="232238616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150984192"/>
+        <c:axId val="232235872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -10354,7 +10362,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="high"/>
@@ -10383,14 +10391,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150986112"/>
+        <c:crossAx val="232238616"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150986112"/>
+        <c:axId val="232238616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -10408,7 +10416,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -10437,7 +10445,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150984192"/>
+        <c:crossAx val="232235872"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -10605,7 +10613,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -10734,7 +10742,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -10863,7 +10871,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -10992,7 +11000,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -11119,7 +11127,7 @@
             <c:numRef>
               <c:f>'Mizg жест Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -11215,11 +11223,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153196032"/>
-        <c:axId val="153197952"/>
+        <c:axId val="232239400"/>
+        <c:axId val="232038832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153196032"/>
+        <c:axId val="232239400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -11237,7 +11245,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="high"/>
@@ -11266,14 +11274,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153197952"/>
+        <c:crossAx val="232038832"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153197952"/>
+        <c:axId val="232038832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -11291,7 +11299,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -11320,7 +11328,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153196032"/>
+        <c:crossAx val="232239400"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -11446,7 +11454,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -11575,7 +11583,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -11704,7 +11712,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -11833,7 +11841,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -11960,7 +11968,7 @@
             <c:numRef>
               <c:f>'Mizg упр Ny=-1'!$B$9:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>Основной</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>2.65</c:v>
@@ -12056,11 +12064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157263744"/>
-        <c:axId val="157274112"/>
+        <c:axId val="232039616"/>
+        <c:axId val="232040008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157263744"/>
+        <c:axId val="232039616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17"/>
@@ -12078,7 +12086,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="high"/>
@@ -12107,14 +12115,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157274112"/>
+        <c:crossAx val="232040008"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157274112"/>
+        <c:axId val="232040008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -12132,7 +12140,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="Основной" sourceLinked="0"/>
+        <c:numFmt formatCode="\О\с\н\о\в\н\о\й" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -12161,7 +12169,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157263744"/>
+        <c:crossAx val="232039616"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -12432,7 +12440,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12440,6 +12448,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12473,7 +12499,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12481,6 +12507,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12546,7 +12590,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -12554,6 +12598,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -13128,7 +13190,7 @@
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <a:fld id="{03F62CB8-D63A-4D6D-97BB-8E9CFFD51A6D}" type="mathplaceholder">
+                    <a:fld id="{BD1025DA-0DDF-4BAF-83EC-0ABE3A2882A0}" type="mathplaceholder">
                       <a:rPr lang="ru-RU" sz="1100" i="1">
                         <a:latin typeface="Cambria Math"/>
                       </a:rPr>
@@ -13258,7 +13320,7 @@
                       <m:ctrlPr>
                         <a:rPr lang="ru-RU" sz="1100" i="1">
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="Times New Roman"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -13350,7 +13412,7 @@
                       <m:ctrlPr>
                         <a:rPr lang="ru-RU" sz="1100" i="1">
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="Times New Roman"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -13648,7 +13710,7 @@
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1100" i="1">
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Times New Roman"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -13740,7 +13802,7 @@
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1100" i="1">
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Times New Roman"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -14260,7 +14322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14295,7 +14357,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14768,8 +14830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15421,8 +15483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
